--- a/modelos/OBASPA4451160/OBASPA4451160_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451160/OBASPA4451160_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44467</v>
       </c>
       <c r="B2" t="n">
-        <v>165.6339614669316</v>
+        <v>165.6339614684962</v>
       </c>
       <c r="C2" t="n">
-        <v>140.5103554883366</v>
+        <v>139.0552632229578</v>
       </c>
       <c r="D2" t="n">
-        <v>188.757980292859</v>
+        <v>190.2046653077577</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
@@ -496,13 +496,13 @@
         <v>44474</v>
       </c>
       <c r="B3" t="n">
-        <v>61.5476793158421</v>
+        <v>61.54767931584568</v>
       </c>
       <c r="C3" t="n">
-        <v>33.79803377629585</v>
+        <v>33.95895087311796</v>
       </c>
       <c r="D3" t="n">
-        <v>87.2855567104489</v>
+        <v>88.30599497981218</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -516,13 +516,13 @@
         <v>44498</v>
       </c>
       <c r="B4" t="n">
-        <v>27.42132168775145</v>
+        <v>27.42132168860271</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.211014080997791</v>
+        <v>0.1316189064710168</v>
       </c>
       <c r="D4" t="n">
-        <v>55.58469509415278</v>
+        <v>55.9206714265086</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -536,13 +536,13 @@
         <v>44502</v>
       </c>
       <c r="B5" t="n">
-        <v>16.5355762716573</v>
+        <v>16.5355762725126</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.996206338550108</v>
+        <v>-11.87760049888443</v>
       </c>
       <c r="D5" t="n">
-        <v>45.96155957703173</v>
+        <v>42.41306674306342</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -556,13 +556,13 @@
         <v>44547</v>
       </c>
       <c r="B6" t="n">
-        <v>1.515484806593784</v>
+        <v>1.515484806588535</v>
       </c>
       <c r="C6" t="n">
-        <v>-24.66919122712357</v>
+        <v>-24.93696366157821</v>
       </c>
       <c r="D6" t="n">
-        <v>29.01139342980202</v>
+        <v>28.8805503133963</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -576,13 +576,13 @@
         <v>44551</v>
       </c>
       <c r="B7" t="n">
-        <v>4.87547957804362</v>
+        <v>4.875479578038334</v>
       </c>
       <c r="C7" t="n">
-        <v>-23.71617290627034</v>
+        <v>-20.35053730307386</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1304811062604</v>
+        <v>30.87964653303919</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -596,13 +596,13 @@
         <v>44560</v>
       </c>
       <c r="B8" t="n">
-        <v>-49.88279263313182</v>
+        <v>-49.88279221251504</v>
       </c>
       <c r="C8" t="n">
-        <v>-77.26321003559691</v>
+        <v>-78.22074905816797</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.17809243464957</v>
+        <v>-22.63678437712806</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44631</v>
       </c>
       <c r="B9" t="n">
-        <v>52.21598672147428</v>
+        <v>52.21598669805461</v>
       </c>
       <c r="C9" t="n">
-        <v>23.02887801551666</v>
+        <v>24.22336852457197</v>
       </c>
       <c r="D9" t="n">
-        <v>80.14804740455519</v>
+        <v>81.91235529133691</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -636,13 +636,13 @@
         <v>44635</v>
       </c>
       <c r="B10" t="n">
-        <v>35.09783543216695</v>
+        <v>35.0978354085312</v>
       </c>
       <c r="C10" t="n">
-        <v>6.898307239129917</v>
+        <v>6.780577921784469</v>
       </c>
       <c r="D10" t="n">
-        <v>62.5607407568987</v>
+        <v>63.26665203922051</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44642</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.580403044569131</v>
+        <v>-5.580402237084262</v>
       </c>
       <c r="C11" t="n">
-        <v>-35.93275541321278</v>
+        <v>-33.73344887879741</v>
       </c>
       <c r="D11" t="n">
-        <v>23.48106258349652</v>
+        <v>24.1121952361334</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -676,13 +676,13 @@
         <v>44670</v>
       </c>
       <c r="B12" t="n">
-        <v>44.36155758566409</v>
+        <v>44.36155733987684</v>
       </c>
       <c r="C12" t="n">
-        <v>18.88960904452148</v>
+        <v>15.76786530117094</v>
       </c>
       <c r="D12" t="n">
-        <v>76.49167362196377</v>
+        <v>73.82179463275995</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -696,13 +696,13 @@
         <v>44677</v>
       </c>
       <c r="B13" t="n">
-        <v>4.660236534866403</v>
+        <v>4.660236535283615</v>
       </c>
       <c r="C13" t="n">
-        <v>-24.08607729168225</v>
+        <v>-24.73420001984596</v>
       </c>
       <c r="D13" t="n">
-        <v>33.02077458668525</v>
+        <v>34.33074350791713</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -716,13 +716,13 @@
         <v>44687</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.556499998361319</v>
+        <v>-5.556499998117837</v>
       </c>
       <c r="C14" t="n">
-        <v>-33.20313943196792</v>
+        <v>-35.29806973304489</v>
       </c>
       <c r="D14" t="n">
-        <v>24.6345869901697</v>
+        <v>23.469147496553</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
@@ -736,13 +736,13 @@
         <v>44691</v>
       </c>
       <c r="B15" t="n">
-        <v>14.69123581833117</v>
+        <v>14.69123581833232</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.09825046422142</v>
+        <v>-14.39088594548932</v>
       </c>
       <c r="D15" t="n">
-        <v>44.3211690626711</v>
+        <v>40.83579833166076</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -756,13 +756,13 @@
         <v>44698</v>
       </c>
       <c r="B16" t="n">
-        <v>14.93824275954937</v>
+        <v>14.93824275946182</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.13227579307306</v>
+        <v>-13.93656485488665</v>
       </c>
       <c r="D16" t="n">
-        <v>42.82712835374507</v>
+        <v>42.77391840220071</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>44705</v>
       </c>
       <c r="B17" t="n">
-        <v>2.233222281713421</v>
+        <v>2.233222282099675</v>
       </c>
       <c r="C17" t="n">
-        <v>-25.2688038250283</v>
+        <v>-28.71253175299804</v>
       </c>
       <c r="D17" t="n">
-        <v>32.33791141676382</v>
+        <v>30.03719604891865</v>
       </c>
       <c r="E17" t="n">
         <v>90</v>
@@ -796,13 +796,13 @@
         <v>44712</v>
       </c>
       <c r="B18" t="n">
-        <v>30.64295319195856</v>
+        <v>30.64295320298393</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2244851442599484</v>
+        <v>-0.7675450476464114</v>
       </c>
       <c r="D18" t="n">
-        <v>59.67430040609843</v>
+        <v>58.74534630011515</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -816,13 +816,13 @@
         <v>44715</v>
       </c>
       <c r="B19" t="n">
-        <v>24.70655470448427</v>
+        <v>24.70655471565348</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.808872190793398</v>
+        <v>-5.026347442127707</v>
       </c>
       <c r="D19" t="n">
-        <v>55.06597493755786</v>
+        <v>56.03329424219369</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44719</v>
       </c>
       <c r="B20" t="n">
-        <v>16.93684899175797</v>
+        <v>16.93684899175852</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.6432209139739</v>
+        <v>-13.26204653122183</v>
       </c>
       <c r="D20" t="n">
-        <v>46.40521645518191</v>
+        <v>47.74702725142431</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -856,13 +856,13 @@
         <v>44726</v>
       </c>
       <c r="B21" t="n">
-        <v>11.68262007258085</v>
+        <v>11.68262007234103</v>
       </c>
       <c r="C21" t="n">
-        <v>-20.38471098381213</v>
+        <v>-21.34968144326388</v>
       </c>
       <c r="D21" t="n">
-        <v>40.29447325481769</v>
+        <v>42.44618710266546</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -876,13 +876,13 @@
         <v>44736</v>
       </c>
       <c r="B22" t="n">
-        <v>12.75980757408288</v>
+        <v>12.75980757663164</v>
       </c>
       <c r="C22" t="n">
-        <v>-16.54399017413369</v>
+        <v>-16.1213515403093</v>
       </c>
       <c r="D22" t="n">
-        <v>41.69806175572544</v>
+        <v>41.75473851841926</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -896,13 +896,13 @@
         <v>44740</v>
       </c>
       <c r="B23" t="n">
-        <v>6.180531087882017</v>
+        <v>6.180531087701418</v>
       </c>
       <c r="C23" t="n">
-        <v>-22.58914648021545</v>
+        <v>-23.6245783105383</v>
       </c>
       <c r="D23" t="n">
-        <v>36.91910274652579</v>
+        <v>36.87008268912006</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -916,13 +916,13 @@
         <v>44743</v>
       </c>
       <c r="B24" t="n">
-        <v>4.387846144533518</v>
+        <v>4.387846144352266</v>
       </c>
       <c r="C24" t="n">
-        <v>-27.16089838597583</v>
+        <v>-25.11847178410963</v>
       </c>
       <c r="D24" t="n">
-        <v>34.49489104005599</v>
+        <v>36.05298658211152</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -936,13 +936,13 @@
         <v>44750</v>
       </c>
       <c r="B25" t="n">
-        <v>3.230807220612457</v>
+        <v>3.230807220555405</v>
       </c>
       <c r="C25" t="n">
-        <v>-26.92321916760161</v>
+        <v>-26.80262190086157</v>
       </c>
       <c r="D25" t="n">
-        <v>33.45341174727598</v>
+        <v>32.75554272128509</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44764</v>
       </c>
       <c r="B26" t="n">
-        <v>56.8891237028155</v>
+        <v>56.88912370261255</v>
       </c>
       <c r="C26" t="n">
-        <v>27.26381562529109</v>
+        <v>26.44719093684949</v>
       </c>
       <c r="D26" t="n">
-        <v>84.29637011071979</v>
+        <v>85.71001886621994</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -976,13 +976,13 @@
         <v>44771</v>
       </c>
       <c r="B27" t="n">
-        <v>69.3229395946466</v>
+        <v>69.3229395945128</v>
       </c>
       <c r="C27" t="n">
-        <v>41.34611282206937</v>
+        <v>41.94045353906806</v>
       </c>
       <c r="D27" t="n">
-        <v>98.1806284274912</v>
+        <v>99.85813636156281</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -996,13 +996,13 @@
         <v>44775</v>
       </c>
       <c r="B28" t="n">
-        <v>69.24818931504328</v>
+        <v>69.24818931490907</v>
       </c>
       <c r="C28" t="n">
-        <v>39.68138044426857</v>
+        <v>42.40764301792052</v>
       </c>
       <c r="D28" t="n">
-        <v>99.00787451801069</v>
+        <v>99.23465330490387</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1016,13 +1016,13 @@
         <v>44785</v>
       </c>
       <c r="B29" t="n">
-        <v>8.75787161086183</v>
+        <v>7.618249786371951</v>
       </c>
       <c r="C29" t="n">
-        <v>-20.83170062654171</v>
+        <v>-21.21547447764991</v>
       </c>
       <c r="D29" t="n">
-        <v>37.6696812006583</v>
+        <v>36.46852793864246</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -1036,13 +1036,13 @@
         <v>44796</v>
       </c>
       <c r="B30" t="n">
-        <v>26.6845020375268</v>
+        <v>27.10488068181144</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.447901171060353</v>
+        <v>-4.8179125271418</v>
       </c>
       <c r="D30" t="n">
-        <v>56.26358907742407</v>
+        <v>55.98695127632895</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1056,13 +1056,13 @@
         <v>44824</v>
       </c>
       <c r="B31" t="n">
-        <v>128.2231324948145</v>
+        <v>126.4920523680705</v>
       </c>
       <c r="C31" t="n">
-        <v>99.32795872938051</v>
+        <v>98.85610599498318</v>
       </c>
       <c r="D31" t="n">
-        <v>156.6736207696631</v>
+        <v>156.4339571521794</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
@@ -1076,13 +1076,13 @@
         <v>44852</v>
       </c>
       <c r="B32" t="n">
-        <v>29.92693764355958</v>
+        <v>29.57675120723844</v>
       </c>
       <c r="C32" t="n">
-        <v>2.047401355528822</v>
+        <v>2.272728708236194</v>
       </c>
       <c r="D32" t="n">
-        <v>59.24141595280759</v>
+        <v>58.9519527688916</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1096,13 +1096,13 @@
         <v>44859</v>
       </c>
       <c r="B33" t="n">
-        <v>14.38816362682285</v>
+        <v>14.24195977010222</v>
       </c>
       <c r="C33" t="n">
-        <v>-14.46058362504558</v>
+        <v>-15.78677005053149</v>
       </c>
       <c r="D33" t="n">
-        <v>45.45742188761584</v>
+        <v>46.90924277235652</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -1116,13 +1116,13 @@
         <v>44876</v>
       </c>
       <c r="B34" t="n">
-        <v>13.54813774966848</v>
+        <v>13.52969083646709</v>
       </c>
       <c r="C34" t="n">
-        <v>-16.07421139900046</v>
+        <v>-15.04726555477694</v>
       </c>
       <c r="D34" t="n">
-        <v>43.17003417817003</v>
+        <v>43.42395479681317</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1136,13 +1136,13 @@
         <v>44880</v>
       </c>
       <c r="B35" t="n">
-        <v>7.767343261865935</v>
+        <v>7.857302801590411</v>
       </c>
       <c r="C35" t="n">
-        <v>-20.51967798506683</v>
+        <v>-22.55958267177615</v>
       </c>
       <c r="D35" t="n">
-        <v>36.29607794017534</v>
+        <v>35.90646357592743</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -1156,13 +1156,13 @@
         <v>44908</v>
       </c>
       <c r="B36" t="n">
-        <v>12.20403538628799</v>
+        <v>12.14178774213571</v>
       </c>
       <c r="C36" t="n">
-        <v>-15.39122521156531</v>
+        <v>-14.68108443064669</v>
       </c>
       <c r="D36" t="n">
-        <v>41.66453797637249</v>
+        <v>41.4606934924163</v>
       </c>
       <c r="E36" t="n">
         <v>40</v>
@@ -1176,13 +1176,13 @@
         <v>44925</v>
       </c>
       <c r="B37" t="n">
-        <v>12.50994988886033</v>
+        <v>12.30724305261511</v>
       </c>
       <c r="C37" t="n">
-        <v>-17.18187325315731</v>
+        <v>-17.28253371051766</v>
       </c>
       <c r="D37" t="n">
-        <v>39.3735297785968</v>
+        <v>43.39696086099008</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1196,13 +1196,13 @@
         <v>44929</v>
       </c>
       <c r="B38" t="n">
-        <v>2.751372920797946</v>
+        <v>2.798495120393079</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.61225393256848</v>
+        <v>-26.53583201082313</v>
       </c>
       <c r="D38" t="n">
-        <v>33.21384738557149</v>
+        <v>29.60961681718718</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1216,13 +1216,13 @@
         <v>44939</v>
       </c>
       <c r="B39" t="n">
-        <v>5.511302770163775</v>
+        <v>5.845831600457087</v>
       </c>
       <c r="C39" t="n">
-        <v>-23.64006594173076</v>
+        <v>-22.51239914266273</v>
       </c>
       <c r="D39" t="n">
-        <v>33.38777203258089</v>
+        <v>33.64637127092504</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -1236,13 +1236,13 @@
         <v>44943</v>
       </c>
       <c r="B40" t="n">
-        <v>16.30026549920872</v>
+        <v>16.48520461793545</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.41426268230016</v>
+        <v>-12.11548782372171</v>
       </c>
       <c r="D40" t="n">
-        <v>44.87172191596952</v>
+        <v>45.63167028807575</v>
       </c>
       <c r="E40" t="n">
         <v>70</v>
@@ -1256,13 +1256,13 @@
         <v>44950</v>
       </c>
       <c r="B41" t="n">
-        <v>46.59825774992031</v>
+        <v>46.36763538379248</v>
       </c>
       <c r="C41" t="n">
-        <v>16.42777477703819</v>
+        <v>17.28229909734968</v>
       </c>
       <c r="D41" t="n">
-        <v>76.42674010648706</v>
+        <v>76.7506346673572</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1337,22 +1337,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>781.0589333972832</v>
+        <v>782.1350247876907</v>
       </c>
       <c r="C2" t="n">
-        <v>27.94743160645148</v>
+        <v>27.96667704228893</v>
       </c>
       <c r="D2" t="n">
-        <v>21.94026371089168</v>
+        <v>22.06854455098392</v>
       </c>
       <c r="E2" t="n">
-        <v>1.469126418822627</v>
+        <v>1.480149985991071</v>
       </c>
       <c r="F2" t="n">
-        <v>1.162566919573234</v>
+        <v>1.16594536688655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7838484611341121</v>
+        <v>0.7961397897947273</v>
       </c>
       <c r="H2" t="n">
         <v>0.625</v>
@@ -1363,22 +1363,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1076.556868593444</v>
+        <v>1076.556867303489</v>
       </c>
       <c r="C3" t="n">
-        <v>32.8109260551031</v>
+        <v>32.81092603544571</v>
       </c>
       <c r="D3" t="n">
-        <v>21.19966631985753</v>
+        <v>21.19966629366722</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8166920680813148</v>
+        <v>0.8166920668346831</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6936848991757973</v>
+        <v>0.6936848991758516</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8179617350268662</v>
+        <v>0.8179617345228365</v>
       </c>
       <c r="H3" t="n">
         <v>0.8888888888888888</v>
@@ -1389,22 +1389,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1115.85063516319</v>
+        <v>1115.850634195817</v>
       </c>
       <c r="C4" t="n">
-        <v>33.40435054245465</v>
+        <v>33.40435052797491</v>
       </c>
       <c r="D4" t="n">
-        <v>24.68087984538225</v>
+        <v>24.68087982574083</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8320473036982134</v>
+        <v>0.8320473027632727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8613858963600147</v>
+        <v>0.8613858963531271</v>
       </c>
       <c r="G4" t="n">
-        <v>1.004826677883683</v>
+        <v>1.004826677505766</v>
       </c>
       <c r="H4" t="n">
         <v>0.6666666666666667</v>
@@ -1415,22 +1415,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2010.733522109907</v>
+        <v>1994.905018359885</v>
       </c>
       <c r="C5" t="n">
-        <v>44.84120339720944</v>
+        <v>44.66435959867649</v>
       </c>
       <c r="D5" t="n">
-        <v>33.01163623444404</v>
+        <v>32.9022320146675</v>
       </c>
       <c r="E5" t="n">
-        <v>1.701103889920947</v>
+        <v>1.69792640727725</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7548917716083476</v>
+        <v>0.7548917704265602</v>
       </c>
       <c r="G5" t="n">
-        <v>1.028649200139546</v>
+        <v>1.02646968820531</v>
       </c>
       <c r="H5" t="n">
         <v>0.5714285714285716</v>

--- a/modelos/OBASPA4451160/OBASPA4451160_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451160/OBASPA4451160_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44467</v>
       </c>
       <c r="B2" t="n">
-        <v>165.6339614684962</v>
+        <v>165.6339614675891</v>
       </c>
       <c r="C2" t="n">
-        <v>139.0552632229578</v>
+        <v>140.7824654029746</v>
       </c>
       <c r="D2" t="n">
-        <v>190.2046653077577</v>
+        <v>191.2543637168855</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
@@ -496,13 +496,13 @@
         <v>44474</v>
       </c>
       <c r="B3" t="n">
-        <v>61.54767931584568</v>
+        <v>61.54767931584345</v>
       </c>
       <c r="C3" t="n">
-        <v>33.95895087311796</v>
+        <v>33.35882827525876</v>
       </c>
       <c r="D3" t="n">
-        <v>88.30599497981218</v>
+        <v>88.84611510111263</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -516,13 +516,13 @@
         <v>44498</v>
       </c>
       <c r="B4" t="n">
-        <v>27.42132168860271</v>
+        <v>27.42132168869037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1316189064710168</v>
+        <v>-0.9907340180366924</v>
       </c>
       <c r="D4" t="n">
-        <v>55.9206714265086</v>
+        <v>54.71323278499479</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -536,13 +536,13 @@
         <v>44502</v>
       </c>
       <c r="B5" t="n">
-        <v>16.5355762725126</v>
+        <v>16.53557627260069</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.87760049888443</v>
+        <v>-9.20635181956629</v>
       </c>
       <c r="D5" t="n">
-        <v>42.41306674306342</v>
+        <v>43.20215576134525</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -556,13 +556,13 @@
         <v>44547</v>
       </c>
       <c r="B6" t="n">
-        <v>1.515484806588535</v>
+        <v>1.515484806592962</v>
       </c>
       <c r="C6" t="n">
-        <v>-24.93696366157821</v>
+        <v>-24.56801278457934</v>
       </c>
       <c r="D6" t="n">
-        <v>28.8805503133963</v>
+        <v>29.18443833639614</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -576,13 +576,13 @@
         <v>44551</v>
       </c>
       <c r="B7" t="n">
-        <v>4.875479578038334</v>
+        <v>4.875479578042796</v>
       </c>
       <c r="C7" t="n">
-        <v>-20.35053730307386</v>
+        <v>-21.5450946696115</v>
       </c>
       <c r="D7" t="n">
-        <v>30.87964653303919</v>
+        <v>32.99106908000104</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -596,13 +596,13 @@
         <v>44560</v>
       </c>
       <c r="B8" t="n">
-        <v>-49.88279221251504</v>
+        <v>-49.88279263310498</v>
       </c>
       <c r="C8" t="n">
-        <v>-78.22074905816797</v>
+        <v>-78.09243609566744</v>
       </c>
       <c r="D8" t="n">
-        <v>-22.63678437712806</v>
+        <v>-21.19456063957871</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44631</v>
       </c>
       <c r="B9" t="n">
-        <v>52.21598669805461</v>
+        <v>52.21598668504751</v>
       </c>
       <c r="C9" t="n">
-        <v>24.22336852457197</v>
+        <v>20.7019675842307</v>
       </c>
       <c r="D9" t="n">
-        <v>81.91235529133691</v>
+        <v>79.83326677367089</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -636,13 +636,13 @@
         <v>44635</v>
       </c>
       <c r="B10" t="n">
-        <v>35.0978354085312</v>
+        <v>35.09783539554775</v>
       </c>
       <c r="C10" t="n">
-        <v>6.780577921784469</v>
+        <v>5.073522825223205</v>
       </c>
       <c r="D10" t="n">
-        <v>63.26665203922051</v>
+        <v>65.03540159667172</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44642</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.580402237084262</v>
+        <v>-5.580403046309295</v>
       </c>
       <c r="C11" t="n">
-        <v>-33.73344887879741</v>
+        <v>-33.97086342000424</v>
       </c>
       <c r="D11" t="n">
-        <v>24.1121952361334</v>
+        <v>23.51052132751239</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -676,13 +676,13 @@
         <v>44670</v>
       </c>
       <c r="B12" t="n">
-        <v>44.36155733987684</v>
+        <v>44.36155756270992</v>
       </c>
       <c r="C12" t="n">
-        <v>15.76786530117094</v>
+        <v>17.68806088696405</v>
       </c>
       <c r="D12" t="n">
-        <v>73.82179463275995</v>
+        <v>72.68837537337994</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -696,13 +696,13 @@
         <v>44677</v>
       </c>
       <c r="B13" t="n">
-        <v>4.660236535283615</v>
+        <v>4.660236534723509</v>
       </c>
       <c r="C13" t="n">
-        <v>-24.73420001984596</v>
+        <v>-26.38517295072814</v>
       </c>
       <c r="D13" t="n">
-        <v>34.33074350791713</v>
+        <v>33.28158212506019</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -716,13 +716,13 @@
         <v>44687</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.556499998117837</v>
+        <v>-5.556499998230967</v>
       </c>
       <c r="C14" t="n">
-        <v>-35.29806973304489</v>
+        <v>-33.28315877564338</v>
       </c>
       <c r="D14" t="n">
-        <v>23.469147496553</v>
+        <v>21.07670146247507</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
@@ -736,13 +736,13 @@
         <v>44691</v>
       </c>
       <c r="B15" t="n">
-        <v>14.69123581833232</v>
+        <v>14.69123581833211</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.39088594548932</v>
+        <v>-15.36776840864196</v>
       </c>
       <c r="D15" t="n">
-        <v>40.83579833166076</v>
+        <v>43.77255470229436</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -756,13 +756,13 @@
         <v>44698</v>
       </c>
       <c r="B16" t="n">
-        <v>14.93824275946182</v>
+        <v>14.93824275938039</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.93656485488665</v>
+        <v>-13.43015216599941</v>
       </c>
       <c r="D16" t="n">
-        <v>42.77391840220071</v>
+        <v>43.69617663459661</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>44705</v>
       </c>
       <c r="B17" t="n">
-        <v>2.233222282099675</v>
+        <v>2.233234141933465</v>
       </c>
       <c r="C17" t="n">
-        <v>-28.71253175299804</v>
+        <v>-26.72004445478148</v>
       </c>
       <c r="D17" t="n">
-        <v>30.03719604891865</v>
+        <v>30.97026364716049</v>
       </c>
       <c r="E17" t="n">
         <v>90</v>
@@ -796,13 +796,13 @@
         <v>44712</v>
       </c>
       <c r="B18" t="n">
-        <v>30.64295320298393</v>
+        <v>30.64285219096961</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7675450476464114</v>
+        <v>-0.2934422526963562</v>
       </c>
       <c r="D18" t="n">
-        <v>58.74534630011515</v>
+        <v>58.30018160584176</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -816,13 +816,13 @@
         <v>44715</v>
       </c>
       <c r="B19" t="n">
-        <v>24.70655471565348</v>
+        <v>24.70644337731533</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.026347442127707</v>
+        <v>-6.70318503227707</v>
       </c>
       <c r="D19" t="n">
-        <v>56.03329424219369</v>
+        <v>53.64308517762836</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44719</v>
       </c>
       <c r="B20" t="n">
-        <v>16.93684899175852</v>
+        <v>16.93684899175723</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.26204653122183</v>
+        <v>-13.23470150762384</v>
       </c>
       <c r="D20" t="n">
-        <v>47.74702725142431</v>
+        <v>45.54411557929186</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -856,13 +856,13 @@
         <v>44726</v>
       </c>
       <c r="B21" t="n">
-        <v>11.68262007234103</v>
+        <v>11.68262007214125</v>
       </c>
       <c r="C21" t="n">
-        <v>-21.34968144326388</v>
+        <v>-19.54483474343663</v>
       </c>
       <c r="D21" t="n">
-        <v>42.44618710266546</v>
+        <v>43.82978533147302</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -876,13 +876,13 @@
         <v>44736</v>
       </c>
       <c r="B22" t="n">
-        <v>12.75980757663164</v>
+        <v>12.75980751268669</v>
       </c>
       <c r="C22" t="n">
-        <v>-16.1213515403093</v>
+        <v>-17.4508114205468</v>
       </c>
       <c r="D22" t="n">
-        <v>41.75473851841926</v>
+        <v>42.068020874787</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -896,13 +896,13 @@
         <v>44740</v>
       </c>
       <c r="B23" t="n">
-        <v>6.180531087701418</v>
+        <v>6.180531087852975</v>
       </c>
       <c r="C23" t="n">
-        <v>-23.6245783105383</v>
+        <v>-23.00521900290614</v>
       </c>
       <c r="D23" t="n">
-        <v>36.87008268912006</v>
+        <v>34.88842357549844</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -916,13 +916,13 @@
         <v>44743</v>
       </c>
       <c r="B24" t="n">
-        <v>4.387846144352266</v>
+        <v>4.387846144504373</v>
       </c>
       <c r="C24" t="n">
-        <v>-25.11847178410963</v>
+        <v>-25.05715131702763</v>
       </c>
       <c r="D24" t="n">
-        <v>36.05298658211152</v>
+        <v>34.58166730503381</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -936,13 +936,13 @@
         <v>44750</v>
       </c>
       <c r="B25" t="n">
-        <v>3.230807220555405</v>
+        <v>3.230807220737274</v>
       </c>
       <c r="C25" t="n">
-        <v>-26.80262190086157</v>
+        <v>-27.638524592038</v>
       </c>
       <c r="D25" t="n">
-        <v>32.75554272128509</v>
+        <v>31.26169517966011</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44764</v>
       </c>
       <c r="B26" t="n">
-        <v>56.88912370261255</v>
+        <v>56.88912370308888</v>
       </c>
       <c r="C26" t="n">
-        <v>26.44719093684949</v>
+        <v>28.37926178278711</v>
       </c>
       <c r="D26" t="n">
-        <v>85.71001886621994</v>
+        <v>85.32323533365965</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -976,13 +976,13 @@
         <v>44771</v>
       </c>
       <c r="B27" t="n">
-        <v>69.3229395945128</v>
+        <v>69.32293959496168</v>
       </c>
       <c r="C27" t="n">
-        <v>41.94045353906806</v>
+        <v>40.00647642362035</v>
       </c>
       <c r="D27" t="n">
-        <v>99.85813636156281</v>
+        <v>95.12476934887998</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -996,13 +996,13 @@
         <v>44775</v>
       </c>
       <c r="B28" t="n">
-        <v>69.24818931490907</v>
+        <v>69.24818931535971</v>
       </c>
       <c r="C28" t="n">
-        <v>42.40764301792052</v>
+        <v>39.34146895428173</v>
       </c>
       <c r="D28" t="n">
-        <v>99.23465330490387</v>
+        <v>96.96371429583255</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1016,13 +1016,13 @@
         <v>44785</v>
       </c>
       <c r="B29" t="n">
-        <v>7.618249786371951</v>
+        <v>7.618249786371987</v>
       </c>
       <c r="C29" t="n">
-        <v>-21.21547447764991</v>
+        <v>-23.40817514617162</v>
       </c>
       <c r="D29" t="n">
-        <v>36.46852793864246</v>
+        <v>37.01602212842587</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -1036,13 +1036,13 @@
         <v>44796</v>
       </c>
       <c r="B30" t="n">
-        <v>27.10488068181144</v>
+        <v>27.10488068181702</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.8179125271418</v>
+        <v>-1.304807944457236</v>
       </c>
       <c r="D30" t="n">
-        <v>55.98695127632895</v>
+        <v>55.77574038849044</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1056,13 +1056,13 @@
         <v>44824</v>
       </c>
       <c r="B31" t="n">
-        <v>126.4920523680705</v>
+        <v>126.4920523682147</v>
       </c>
       <c r="C31" t="n">
-        <v>98.85610599498318</v>
+        <v>97.60846490259692</v>
       </c>
       <c r="D31" t="n">
-        <v>156.4339571521794</v>
+        <v>157.9128691574623</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
@@ -1076,13 +1076,13 @@
         <v>44852</v>
       </c>
       <c r="B32" t="n">
-        <v>29.57675120723844</v>
+        <v>29.57675120726727</v>
       </c>
       <c r="C32" t="n">
-        <v>2.272728708236194</v>
+        <v>-1.510245642569187</v>
       </c>
       <c r="D32" t="n">
-        <v>58.9519527688916</v>
+        <v>58.00108883810015</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1096,13 +1096,13 @@
         <v>44859</v>
       </c>
       <c r="B33" t="n">
-        <v>14.24195977010222</v>
+        <v>14.24195976258118</v>
       </c>
       <c r="C33" t="n">
-        <v>-15.78677005053149</v>
+        <v>-14.76892453515679</v>
       </c>
       <c r="D33" t="n">
-        <v>46.90924277235652</v>
+        <v>43.25748735964638</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -1116,13 +1116,13 @@
         <v>44876</v>
       </c>
       <c r="B34" t="n">
-        <v>13.52969083646709</v>
+        <v>13.52969079416212</v>
       </c>
       <c r="C34" t="n">
-        <v>-15.04726555477694</v>
+        <v>-13.91286215816943</v>
       </c>
       <c r="D34" t="n">
-        <v>43.42395479681317</v>
+        <v>44.11335959249459</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1136,13 +1136,13 @@
         <v>44880</v>
       </c>
       <c r="B35" t="n">
-        <v>7.857302801590411</v>
+        <v>7.857302759089125</v>
       </c>
       <c r="C35" t="n">
-        <v>-22.55958267177615</v>
+        <v>-22.41552561318395</v>
       </c>
       <c r="D35" t="n">
-        <v>35.90646357592743</v>
+        <v>39.24668243823797</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -1156,13 +1156,13 @@
         <v>44908</v>
       </c>
       <c r="B36" t="n">
-        <v>12.14178774213571</v>
+        <v>12.14178774180484</v>
       </c>
       <c r="C36" t="n">
-        <v>-14.68108443064669</v>
+        <v>-14.6391423875246</v>
       </c>
       <c r="D36" t="n">
-        <v>41.4606934924163</v>
+        <v>40.57366341675528</v>
       </c>
       <c r="E36" t="n">
         <v>40</v>
@@ -1176,13 +1176,13 @@
         <v>44925</v>
       </c>
       <c r="B37" t="n">
-        <v>12.30724305261511</v>
+        <v>12.30724315152699</v>
       </c>
       <c r="C37" t="n">
-        <v>-17.28253371051766</v>
+        <v>-13.67387262934646</v>
       </c>
       <c r="D37" t="n">
-        <v>43.39696086099008</v>
+        <v>41.59203486871856</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1196,13 +1196,13 @@
         <v>44929</v>
       </c>
       <c r="B38" t="n">
-        <v>2.798495120393079</v>
+        <v>2.798495219730501</v>
       </c>
       <c r="C38" t="n">
-        <v>-26.53583201082313</v>
+        <v>-25.89990528978622</v>
       </c>
       <c r="D38" t="n">
-        <v>29.60961681718718</v>
+        <v>33.13467225688841</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1216,13 +1216,13 @@
         <v>44939</v>
       </c>
       <c r="B39" t="n">
-        <v>5.845831600457087</v>
+        <v>5.845831664632843</v>
       </c>
       <c r="C39" t="n">
-        <v>-22.51239914266273</v>
+        <v>-23.38776110661306</v>
       </c>
       <c r="D39" t="n">
-        <v>33.64637127092504</v>
+        <v>33.93822442894248</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -1236,13 +1236,13 @@
         <v>44943</v>
       </c>
       <c r="B40" t="n">
-        <v>16.48520461793545</v>
+        <v>16.48520468233817</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.11548782372171</v>
+        <v>-11.73288356997963</v>
       </c>
       <c r="D40" t="n">
-        <v>45.63167028807575</v>
+        <v>46.55091240934156</v>
       </c>
       <c r="E40" t="n">
         <v>70</v>
@@ -1256,13 +1256,13 @@
         <v>44950</v>
       </c>
       <c r="B41" t="n">
-        <v>46.36763538379248</v>
+        <v>46.36763538361249</v>
       </c>
       <c r="C41" t="n">
-        <v>17.28229909734968</v>
+        <v>16.57163496232122</v>
       </c>
       <c r="D41" t="n">
-        <v>76.7506346673572</v>
+        <v>73.74209066453915</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1337,22 +1337,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>782.1350247876907</v>
+        <v>782.1350242249997</v>
       </c>
       <c r="C2" t="n">
-        <v>27.96667704228893</v>
+        <v>27.9666770322289</v>
       </c>
       <c r="D2" t="n">
-        <v>22.06854455098392</v>
+        <v>22.06854453438681</v>
       </c>
       <c r="E2" t="n">
-        <v>1.480149985991071</v>
+        <v>1.480149984885437</v>
       </c>
       <c r="F2" t="n">
-        <v>1.16594536688655</v>
+        <v>1.165945365242402</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7961397897947273</v>
+        <v>0.7961397880490481</v>
       </c>
       <c r="H2" t="n">
         <v>0.625</v>
@@ -1363,22 +1363,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1076.556867303489</v>
+        <v>1076.556173828138</v>
       </c>
       <c r="C3" t="n">
-        <v>32.81092603544571</v>
+        <v>32.81091546769365</v>
       </c>
       <c r="D3" t="n">
-        <v>21.19966629366722</v>
+        <v>21.19965377712404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8166920668346831</v>
+        <v>0.8166909310724122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6936848991758516</v>
+        <v>0.6936848991757227</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8179617345228365</v>
+        <v>0.8179614074546553</v>
       </c>
       <c r="H3" t="n">
         <v>0.8888888888888888</v>
@@ -1389,22 +1389,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1115.850634195817</v>
+        <v>1115.850114089226</v>
       </c>
       <c r="C4" t="n">
-        <v>33.40435052797491</v>
+        <v>33.40434274296122</v>
       </c>
       <c r="D4" t="n">
-        <v>24.68087982574083</v>
+        <v>24.68087043833232</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8320473027632727</v>
+        <v>0.8320464509415415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8613858963531271</v>
+        <v>0.8613858963624065</v>
       </c>
       <c r="G4" t="n">
-        <v>1.004826677505766</v>
+        <v>1.004826432204541</v>
       </c>
       <c r="H4" t="n">
         <v>0.6666666666666667</v>
@@ -1415,22 +1415,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1994.905018359885</v>
+        <v>1994.90518681759</v>
       </c>
       <c r="C5" t="n">
-        <v>44.66435959867649</v>
+        <v>44.66436148449444</v>
       </c>
       <c r="D5" t="n">
-        <v>32.9022320146675</v>
+        <v>32.90223736524021</v>
       </c>
       <c r="E5" t="n">
-        <v>1.69792640727725</v>
+        <v>1.697926541808919</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7548917704265602</v>
+        <v>0.7548917697773874</v>
       </c>
       <c r="G5" t="n">
-        <v>1.02646968820531</v>
+        <v>1.026469889470178</v>
       </c>
       <c r="H5" t="n">
         <v>0.5714285714285716</v>

--- a/modelos/OBASPA4451160/OBASPA4451160_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451160/OBASPA4451160_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>165.6339614675891</v>
       </c>
       <c r="C2" t="n">
-        <v>140.7824654029746</v>
+        <v>140.5769100807642</v>
       </c>
       <c r="D2" t="n">
-        <v>191.2543637168855</v>
+        <v>188.9800614080982</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
@@ -499,10 +499,10 @@
         <v>61.54767931584345</v>
       </c>
       <c r="C3" t="n">
-        <v>33.35882827525876</v>
+        <v>32.25192537991277</v>
       </c>
       <c r="D3" t="n">
-        <v>88.84611510111263</v>
+        <v>89.07612516398498</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -519,10 +519,10 @@
         <v>27.42132168869037</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9907340180366924</v>
+        <v>-0.5199881367430087</v>
       </c>
       <c r="D4" t="n">
-        <v>54.71323278499479</v>
+        <v>56.5282857984012</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -539,10 +539,10 @@
         <v>16.53557627260069</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.20635181956629</v>
+        <v>-11.21177181420398</v>
       </c>
       <c r="D5" t="n">
-        <v>43.20215576134525</v>
+        <v>43.74712954319052</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -559,10 +559,10 @@
         <v>1.515484806592962</v>
       </c>
       <c r="C6" t="n">
-        <v>-24.56801278457934</v>
+        <v>-27.28219400968726</v>
       </c>
       <c r="D6" t="n">
-        <v>29.18443833639614</v>
+        <v>27.81804036329227</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -579,10 +579,10 @@
         <v>4.875479578042796</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.5450946696115</v>
+        <v>-21.12171235102341</v>
       </c>
       <c r="D7" t="n">
-        <v>32.99106908000104</v>
+        <v>32.46920100599375</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -599,10 +599,10 @@
         <v>-49.88279263310498</v>
       </c>
       <c r="C8" t="n">
-        <v>-78.09243609566744</v>
+        <v>-77.77359387860567</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.19456063957871</v>
+        <v>-22.93924943929036</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>52.21598668504751</v>
       </c>
       <c r="C9" t="n">
-        <v>20.7019675842307</v>
+        <v>23.83439819182489</v>
       </c>
       <c r="D9" t="n">
-        <v>79.83326677367089</v>
+        <v>80.09877346744754</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -639,10 +639,10 @@
         <v>35.09783539554775</v>
       </c>
       <c r="C10" t="n">
-        <v>5.073522825223205</v>
+        <v>6.214729243158772</v>
       </c>
       <c r="D10" t="n">
-        <v>65.03540159667172</v>
+        <v>63.2619251126375</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -659,10 +659,10 @@
         <v>-5.580403046309295</v>
       </c>
       <c r="C11" t="n">
-        <v>-33.97086342000424</v>
+        <v>-33.78529485399775</v>
       </c>
       <c r="D11" t="n">
-        <v>23.51052132751239</v>
+        <v>21.000055837731</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -679,10 +679,10 @@
         <v>44.36155756270992</v>
       </c>
       <c r="C12" t="n">
-        <v>17.68806088696405</v>
+        <v>13.23605855761216</v>
       </c>
       <c r="D12" t="n">
-        <v>72.68837537337994</v>
+        <v>71.14305617632971</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -699,10 +699,10 @@
         <v>4.660236534723509</v>
       </c>
       <c r="C13" t="n">
-        <v>-26.38517295072814</v>
+        <v>-24.74732329911549</v>
       </c>
       <c r="D13" t="n">
-        <v>33.28158212506019</v>
+        <v>32.04909424766269</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -719,10 +719,10 @@
         <v>-5.556499998230967</v>
       </c>
       <c r="C14" t="n">
-        <v>-33.28315877564338</v>
+        <v>-34.86887574921814</v>
       </c>
       <c r="D14" t="n">
-        <v>21.07670146247507</v>
+        <v>22.1217654027186</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
@@ -739,10 +739,10 @@
         <v>14.69123581833211</v>
       </c>
       <c r="C15" t="n">
-        <v>-15.36776840864196</v>
+        <v>-16.42141825679463</v>
       </c>
       <c r="D15" t="n">
-        <v>43.77255470229436</v>
+        <v>44.11615800892938</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -759,10 +759,10 @@
         <v>14.93824275938039</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.43015216599941</v>
+        <v>-15.09671864657748</v>
       </c>
       <c r="D16" t="n">
-        <v>43.69617663459661</v>
+        <v>43.37232758676763</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -779,10 +779,10 @@
         <v>2.233234141933465</v>
       </c>
       <c r="C17" t="n">
-        <v>-26.72004445478148</v>
+        <v>-27.09493622864419</v>
       </c>
       <c r="D17" t="n">
-        <v>30.97026364716049</v>
+        <v>30.86719011555043</v>
       </c>
       <c r="E17" t="n">
         <v>90</v>
@@ -799,10 +799,10 @@
         <v>30.64285219096961</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2934422526963562</v>
+        <v>1.270382458742942</v>
       </c>
       <c r="D18" t="n">
-        <v>58.30018160584176</v>
+        <v>61.89097525263803</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -819,10 +819,10 @@
         <v>24.70644337731533</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.70318503227707</v>
+        <v>-7.579506555511617</v>
       </c>
       <c r="D19" t="n">
-        <v>53.64308517762836</v>
+        <v>55.42624353676324</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -839,10 +839,10 @@
         <v>16.93684899175723</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.23470150762384</v>
+        <v>-12.05707077479823</v>
       </c>
       <c r="D20" t="n">
-        <v>45.54411557929186</v>
+        <v>46.74359915028439</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -859,10 +859,10 @@
         <v>11.68262007214125</v>
       </c>
       <c r="C21" t="n">
-        <v>-19.54483474343663</v>
+        <v>-17.74472620333954</v>
       </c>
       <c r="D21" t="n">
-        <v>43.82978533147302</v>
+        <v>43.64484478635188</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -879,10 +879,10 @@
         <v>12.75980751268669</v>
       </c>
       <c r="C22" t="n">
-        <v>-17.4508114205468</v>
+        <v>-15.83960367878567</v>
       </c>
       <c r="D22" t="n">
-        <v>42.068020874787</v>
+        <v>42.36429890483757</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -899,10 +899,10 @@
         <v>6.180531087852975</v>
       </c>
       <c r="C23" t="n">
-        <v>-23.00521900290614</v>
+        <v>-24.34123768771833</v>
       </c>
       <c r="D23" t="n">
-        <v>34.88842357549844</v>
+        <v>36.29077075585942</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -919,10 +919,10 @@
         <v>4.387846144504373</v>
       </c>
       <c r="C24" t="n">
-        <v>-25.05715131702763</v>
+        <v>-25.24452119376604</v>
       </c>
       <c r="D24" t="n">
-        <v>34.58166730503381</v>
+        <v>33.06026815072521</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -939,10 +939,10 @@
         <v>3.230807220737274</v>
       </c>
       <c r="C25" t="n">
-        <v>-27.638524592038</v>
+        <v>-27.4422957202265</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26169517966011</v>
+        <v>31.16704916368397</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -959,10 +959,10 @@
         <v>56.88912370308888</v>
       </c>
       <c r="C26" t="n">
-        <v>28.37926178278711</v>
+        <v>28.33588432595311</v>
       </c>
       <c r="D26" t="n">
-        <v>85.32323533365965</v>
+        <v>87.34318308088946</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -979,10 +979,10 @@
         <v>69.32293959496168</v>
       </c>
       <c r="C27" t="n">
-        <v>40.00647642362035</v>
+        <v>40.88908231239705</v>
       </c>
       <c r="D27" t="n">
-        <v>95.12476934887998</v>
+        <v>99.0538498478755</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -999,10 +999,10 @@
         <v>69.24818931535971</v>
       </c>
       <c r="C28" t="n">
-        <v>39.34146895428173</v>
+        <v>39.81946733722462</v>
       </c>
       <c r="D28" t="n">
-        <v>96.96371429583255</v>
+        <v>98.92626697345372</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
         <v>7.618249786371987</v>
       </c>
       <c r="C29" t="n">
-        <v>-23.40817514617162</v>
+        <v>-21.93881327459197</v>
       </c>
       <c r="D29" t="n">
-        <v>37.01602212842587</v>
+        <v>37.7115841643279</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -1039,10 +1039,10 @@
         <v>27.10488068181702</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.304807944457236</v>
+        <v>-0.4416716528801009</v>
       </c>
       <c r="D30" t="n">
-        <v>55.77574038849044</v>
+        <v>55.9590432464166</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1059,10 +1059,10 @@
         <v>126.4920523682147</v>
       </c>
       <c r="C31" t="n">
-        <v>97.60846490259692</v>
+        <v>98.96300786983313</v>
       </c>
       <c r="D31" t="n">
-        <v>157.9128691574623</v>
+        <v>152.8052070223358</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
@@ -1079,10 +1079,10 @@
         <v>29.57675120726727</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.510245642569187</v>
+        <v>1.88815484444832</v>
       </c>
       <c r="D32" t="n">
-        <v>58.00108883810015</v>
+        <v>59.44037525738291</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1099,10 +1099,10 @@
         <v>14.24195976258118</v>
       </c>
       <c r="C33" t="n">
-        <v>-14.76892453515679</v>
+        <v>-13.85149066689777</v>
       </c>
       <c r="D33" t="n">
-        <v>43.25748735964638</v>
+        <v>43.26248594837376</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -1119,10 +1119,10 @@
         <v>13.52969079416212</v>
       </c>
       <c r="C34" t="n">
-        <v>-13.91286215816943</v>
+        <v>-15.5555262649889</v>
       </c>
       <c r="D34" t="n">
-        <v>44.11335959249459</v>
+        <v>42.6486762849511</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1139,10 +1139,10 @@
         <v>7.857302759089125</v>
       </c>
       <c r="C35" t="n">
-        <v>-22.41552561318395</v>
+        <v>-22.82864510676978</v>
       </c>
       <c r="D35" t="n">
-        <v>39.24668243823797</v>
+        <v>34.69382884595167</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -1159,10 +1159,10 @@
         <v>12.14178774180484</v>
       </c>
       <c r="C36" t="n">
-        <v>-14.6391423875246</v>
+        <v>-16.64003621618281</v>
       </c>
       <c r="D36" t="n">
-        <v>40.57366341675528</v>
+        <v>41.20561179658013</v>
       </c>
       <c r="E36" t="n">
         <v>40</v>
@@ -1179,10 +1179,10 @@
         <v>12.30724315152699</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.67387262934646</v>
+        <v>-16.88539081598</v>
       </c>
       <c r="D37" t="n">
-        <v>41.59203486871856</v>
+        <v>41.15558166639358</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1199,10 +1199,10 @@
         <v>2.798495219730501</v>
       </c>
       <c r="C38" t="n">
-        <v>-25.89990528978622</v>
+        <v>-26.25102546095912</v>
       </c>
       <c r="D38" t="n">
-        <v>33.13467225688841</v>
+        <v>31.11959489980493</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1219,10 +1219,10 @@
         <v>5.845831664632843</v>
       </c>
       <c r="C39" t="n">
-        <v>-23.38776110661306</v>
+        <v>-21.7441123535063</v>
       </c>
       <c r="D39" t="n">
-        <v>33.93822442894248</v>
+        <v>32.09532815410412</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>16.48520468233817</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.73288356997963</v>
+        <v>-13.10418878104324</v>
       </c>
       <c r="D40" t="n">
-        <v>46.55091240934156</v>
+        <v>43.32668870839331</v>
       </c>
       <c r="E40" t="n">
         <v>70</v>
@@ -1259,10 +1259,10 @@
         <v>46.36763538361249</v>
       </c>
       <c r="C41" t="n">
-        <v>16.57163496232122</v>
+        <v>15.61568042305301</v>
       </c>
       <c r="D41" t="n">
-        <v>73.74209066453915</v>
+        <v>76.87900526222504</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
